--- a/DGM-3641-001 - Level Design/Time_Budget.xlsx
+++ b/DGM-3641-001 - Level Design/Time_Budget.xlsx
@@ -1,30 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Jonny Rogers\UVU_SPRING_2020\DGM-3641-001 - Level Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonny\Documents\UVU\UVU_SPRING_2020\DGM-3641-001 - Level Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8048A93B-55E7-47DB-8FAB-06A5B2412DD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="122">
   <si>
     <t>Model Name</t>
   </si>
@@ -197,9 +206,6 @@
     <t>Character Controller</t>
   </si>
   <si>
-    <t>Third Person Camera</t>
-  </si>
-  <si>
     <t>Animation Integration</t>
   </si>
   <si>
@@ -228,12 +234,177 @@
   </si>
   <si>
     <t xml:space="preserve">This script will manage when animations are triggered. </t>
+  </si>
+  <si>
+    <t>Texture Size</t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>Maps</t>
+  </si>
+  <si>
+    <t>2048 Resolution</t>
+  </si>
+  <si>
+    <t>Very Close</t>
+  </si>
+  <si>
+    <t>Normal, Height, Metallic, Color, Roughness</t>
+  </si>
+  <si>
+    <t>Normal, Height, Metallic, Color, Roughness, Emmission</t>
+  </si>
+  <si>
+    <t>Normal, Height, Metallic, Color, Roughness, Opacity</t>
+  </si>
+  <si>
+    <t>Normal, Height, Color,</t>
+  </si>
+  <si>
+    <t>Normal, Height, Color, Metallic, Roughness</t>
+  </si>
+  <si>
+    <t>1024 Resolution</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Production Pipeline</t>
+  </si>
+  <si>
+    <t>DEEP SPACE RESCUE</t>
+  </si>
+  <si>
+    <t>Story:</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Outer Space</t>
+  </si>
+  <si>
+    <t>Timeline</t>
+  </si>
+  <si>
+    <t>Dinstant Future - Year 4027</t>
+  </si>
+  <si>
+    <t>Game Engine</t>
+  </si>
+  <si>
+    <t>Made with Unity</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>Corridor Walls</t>
+  </si>
+  <si>
+    <t>Corridor Cielings</t>
+  </si>
+  <si>
+    <t>Corridor Curved Wall</t>
+  </si>
+  <si>
+    <t>30 Mins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. The modeling will begin in Maya. </t>
+  </si>
+  <si>
+    <t>4. Each model that will require a 2048 texture map will require a low and a high res model.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. When the models are completed and UV'd, they will be sent into substance to be textured. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. As displayed in the Time Budget, each model will have specific maps that will be baked in substance. </t>
+  </si>
+  <si>
+    <t>2a. While white box is set up, the game mechanics can be figured out</t>
+  </si>
+  <si>
+    <t>2d.Followed by weapon use</t>
+  </si>
+  <si>
+    <t>2b. Starting with a custom character controller</t>
+  </si>
+  <si>
+    <t>2c. Camera placement for FPS mechanic</t>
+  </si>
+  <si>
+    <t>2e. Enemy interaction</t>
+  </si>
+  <si>
+    <t>2f. Enviormental interaction</t>
+  </si>
+  <si>
+    <t>Total Hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. Animations </t>
+  </si>
+  <si>
+    <t>8b. Lockers opening and closing</t>
+  </si>
+  <si>
+    <t>8a. Doors opening and closing</t>
+  </si>
+  <si>
+    <t>8c. Space rocks floating when looking out windows</t>
+  </si>
+  <si>
+    <t>8d. Gun recoil</t>
+  </si>
+  <si>
+    <t>8e. Gun reload</t>
+  </si>
+  <si>
+    <t>8f. Gun melee</t>
+  </si>
+  <si>
+    <t>caused by an unkown space menace, whom you will encounter on one of your rescue missions.</t>
+  </si>
+  <si>
+    <t>You are a space rescuer who is tasked with saving space travelers from recent disasters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deep Space Rescue is a linear survival game that allows players to complete objectives </t>
+  </si>
+  <si>
+    <t xml:space="preserve">that will advance their way through the game. </t>
+  </si>
+  <si>
+    <t>1. White boxing will first have to take place to ensure correct placement of the enviormental pieces.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a level map has been created to be a template for this step. </t>
+  </si>
+  <si>
+    <t>process to make sure the scale is accurate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unity for correct placement and arranging. </t>
+  </si>
+  <si>
+    <t>7. After models have been textured, they can be imported into</t>
+  </si>
+  <si>
+    <t>2. Probuilder will be installed in Unity to stream line the whiteboxing</t>
+  </si>
+  <si>
+    <t>First Person Camera</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -268,7 +439,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,8 +451,14 @@
         <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -352,14 +529,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -383,6 +587,38 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -699,581 +935,1233 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="8" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:10" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="20">
+        <v>5</v>
+      </c>
+      <c r="I2" s="20">
+        <v>50</v>
+      </c>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="20">
+        <v>5</v>
+      </c>
+      <c r="I3" s="20">
+        <v>50</v>
+      </c>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="20">
+        <v>5</v>
+      </c>
+      <c r="I4" s="20">
+        <v>50</v>
+      </c>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="20">
+        <v>1</v>
+      </c>
+      <c r="I5" s="20">
+        <v>40</v>
+      </c>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="20">
+        <v>1</v>
+      </c>
+      <c r="I6" s="20">
+        <v>40</v>
+      </c>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="20">
+        <v>4</v>
+      </c>
+      <c r="I7" s="20">
+        <v>45</v>
+      </c>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="20">
+        <v>2</v>
+      </c>
+      <c r="I8" s="20">
+        <v>40</v>
+      </c>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="20">
+        <v>1</v>
+      </c>
+      <c r="I9" s="20">
+        <v>25</v>
+      </c>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20">
+        <v>40</v>
+      </c>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="20">
+        <v>2</v>
+      </c>
+      <c r="I11" s="20">
+        <v>55</v>
+      </c>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="20">
+        <v>5</v>
+      </c>
+      <c r="I12" s="20">
+        <v>45</v>
+      </c>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="20">
+        <v>1</v>
+      </c>
+      <c r="I13" s="20">
+        <v>27</v>
+      </c>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20">
+        <v>35</v>
+      </c>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20">
+        <v>55</v>
+      </c>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20">
+        <v>45</v>
+      </c>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20">
+        <v>44</v>
+      </c>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="20">
+        <v>1</v>
+      </c>
+      <c r="I18" s="20">
+        <v>42</v>
+      </c>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="23">
+        <f>SUM(H2:H18)</f>
+        <v>33</v>
+      </c>
+      <c r="I19" s="23">
+        <f>SUM(I2:I18)/60</f>
+        <v>12.133333333333333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="23">
+        <f>SUM(H19,I19)</f>
+        <v>45.133333333333333</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:10" s="4" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="80.099999999999994" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="57" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="37.200000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="5">
-        <v>5</v>
-      </c>
-      <c r="I2" s="5">
-        <v>50</v>
-      </c>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B58" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="5">
-        <v>1</v>
-      </c>
-      <c r="I3" s="5">
-        <v>40</v>
-      </c>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B59" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="5">
-        <v>1</v>
-      </c>
-      <c r="I4" s="5">
-        <v>40</v>
-      </c>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B60" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="5">
-        <v>4</v>
-      </c>
-      <c r="I5" s="5">
+      <c r="B61" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="5">
-        <v>2</v>
-      </c>
-      <c r="I6" s="5">
-        <v>40</v>
-      </c>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="5">
-        <v>1</v>
-      </c>
-      <c r="I7" s="5">
-        <v>25</v>
-      </c>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5">
-        <v>40</v>
-      </c>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="5">
-        <v>2</v>
-      </c>
-      <c r="I9" s="5">
-        <v>55</v>
-      </c>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="5">
-        <v>5</v>
-      </c>
-      <c r="I10" s="5">
-        <v>45</v>
-      </c>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="5">
-        <v>1</v>
-      </c>
-      <c r="I11" s="5">
-        <v>27</v>
-      </c>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5">
-        <v>35</v>
-      </c>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5">
-        <v>55</v>
-      </c>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5">
-        <v>45</v>
-      </c>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5">
-        <v>44</v>
-      </c>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="5">
-        <v>1</v>
-      </c>
-      <c r="I16" s="5">
-        <v>42</v>
-      </c>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="H17" s="6">
-        <f>SUM(H2:H16)</f>
-        <v>23</v>
-      </c>
-      <c r="I17" s="6">
-        <f>SUM(I2:I16)/60</f>
-        <v>10.466666666666667</v>
-      </c>
-      <c r="J17" s="6">
-        <f>SUM(H17,I17)</f>
-        <v>33.466666666666669</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="80.099999999999994" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>67</v>
+      <c r="B72" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="15"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="2"/>
+    </row>
+    <row r="74" spans="1:4" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="15"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B77" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B86" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B87" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="14"/>
+      <c r="B95" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="14"/>
+      <c r="B96" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="14"/>
+      <c r="B97" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="14"/>
+      <c r="B98" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="14"/>
+      <c r="B99" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="14"/>
+      <c r="B100" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
